--- a/natmiOut/OldD2/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Angptl3-Itga5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H2">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I2">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J2">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N2">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O2">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P2">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q2">
-        <v>20.72318485951238</v>
+        <v>21.52970316843867</v>
       </c>
       <c r="R2">
-        <v>20.72318485951238</v>
+        <v>129.178219010632</v>
       </c>
       <c r="S2">
-        <v>0.03072292558816916</v>
+        <v>0.02794721655762748</v>
       </c>
       <c r="T2">
-        <v>0.03072292558816916</v>
+        <v>0.02236052296032573</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H3">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I3">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J3">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N3">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O3">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P3">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q3">
-        <v>28.78904459147279</v>
+        <v>31.74166237405822</v>
       </c>
       <c r="R3">
-        <v>28.78904459147279</v>
+        <v>285.674961366524</v>
       </c>
       <c r="S3">
-        <v>0.04268087558618219</v>
+        <v>0.04120312785209815</v>
       </c>
       <c r="T3">
-        <v>0.04268087558618219</v>
+        <v>0.04944983435868995</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H4">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I4">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J4">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N4">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O4">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P4">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q4">
-        <v>14.00825590720397</v>
+        <v>15.00989209237355</v>
       </c>
       <c r="R4">
-        <v>14.00825590720397</v>
+        <v>135.089028831362</v>
       </c>
       <c r="S4">
-        <v>0.02076778288543363</v>
+        <v>0.01948399852660881</v>
       </c>
       <c r="T4">
-        <v>0.02076778288543363</v>
+        <v>0.02338367376487176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H5">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I5">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J5">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N5">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O5">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P5">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q5">
-        <v>10.7318333368854</v>
+        <v>11.04625795782911</v>
       </c>
       <c r="R5">
-        <v>10.7318333368854</v>
+        <v>99.41632162046199</v>
       </c>
       <c r="S5">
-        <v>0.01591035930379292</v>
+        <v>0.01433889547308858</v>
       </c>
       <c r="T5">
-        <v>0.01591035930379292</v>
+        <v>0.01720879076404129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H6">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I6">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J6">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N6">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O6">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P6">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q6">
-        <v>10.88421412118335</v>
+        <v>11.63481488641178</v>
       </c>
       <c r="R6">
-        <v>10.88421412118335</v>
+        <v>104.713333977706</v>
       </c>
       <c r="S6">
-        <v>0.0161362697287006</v>
+        <v>0.01510288779620172</v>
       </c>
       <c r="T6">
-        <v>0.0161362697287006</v>
+        <v>0.01812569430507506</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.440947221519618</v>
+        <v>0.4535993333333333</v>
       </c>
       <c r="H7">
-        <v>0.440947221519618</v>
+        <v>1.360798</v>
       </c>
       <c r="I7">
-        <v>0.1334562967563263</v>
+        <v>0.1246263288159886</v>
       </c>
       <c r="J7">
-        <v>0.1334562967563263</v>
+        <v>0.1357693227128203</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N7">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O7">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P7">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q7">
-        <v>4.882222084228832</v>
+        <v>5.046080979244333</v>
       </c>
       <c r="R7">
-        <v>4.882222084228832</v>
+        <v>30.276485875466</v>
       </c>
       <c r="S7">
-        <v>0.007238083664047767</v>
+        <v>0.006550202610363873</v>
       </c>
       <c r="T7">
-        <v>0.007238083664047767</v>
+        <v>0.005240806559816519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H8">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I8">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J8">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N8">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O8">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P8">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q8">
-        <v>49.48865846408384</v>
+        <v>59.65348741392334</v>
       </c>
       <c r="R8">
-        <v>49.48865846408384</v>
+        <v>357.92092448354</v>
       </c>
       <c r="S8">
-        <v>0.07336885627174498</v>
+        <v>0.07743483122510333</v>
       </c>
       <c r="T8">
-        <v>0.07336885627174498</v>
+        <v>0.06195548375873256</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H9">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I9">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J9">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N9">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O9">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P9">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q9">
-        <v>68.75059045958832</v>
+        <v>87.94830296144777</v>
       </c>
       <c r="R9">
-        <v>68.75059045958832</v>
+        <v>791.53472665303</v>
       </c>
       <c r="S9">
-        <v>0.1019254177942186</v>
+        <v>0.1141636858395042</v>
       </c>
       <c r="T9">
-        <v>0.1019254177942186</v>
+        <v>0.1370132717789173</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H10">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I10">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J10">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N10">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O10">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P10">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q10">
-        <v>33.45285953721954</v>
+        <v>41.58870199052944</v>
       </c>
       <c r="R10">
-        <v>33.45285953721954</v>
+        <v>374.298317914765</v>
       </c>
       <c r="S10">
-        <v>0.04959516219350342</v>
+        <v>0.05398534535226705</v>
       </c>
       <c r="T10">
-        <v>0.04959516219350342</v>
+        <v>0.06479038181394613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H11">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I11">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J11">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N11">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O11">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P11">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q11">
-        <v>25.62849476579384</v>
+        <v>30.60645123172389</v>
       </c>
       <c r="R11">
-        <v>25.62849476579384</v>
+        <v>275.458061085515</v>
       </c>
       <c r="S11">
-        <v>0.03799523784418888</v>
+        <v>0.03972953616412923</v>
       </c>
       <c r="T11">
-        <v>0.03799523784418888</v>
+        <v>0.04768130685407977</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H12">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I12">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J12">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N12">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O12">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P12">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q12">
-        <v>25.99239252773214</v>
+        <v>32.23719704632722</v>
       </c>
       <c r="R12">
-        <v>25.99239252773214</v>
+        <v>290.1347734169451</v>
       </c>
       <c r="S12">
-        <v>0.03853473039504551</v>
+        <v>0.04184637010626989</v>
       </c>
       <c r="T12">
-        <v>0.03853473039504551</v>
+        <v>0.05022181999617554</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.05301798900155</v>
+        <v>1.256811666666667</v>
       </c>
       <c r="H13">
-        <v>1.05301798900155</v>
+        <v>3.770435</v>
       </c>
       <c r="I13">
-        <v>0.3187045396173075</v>
+        <v>0.3453087615423538</v>
       </c>
       <c r="J13">
-        <v>0.3187045396173075</v>
+        <v>0.3761832441572611</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N13">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O13">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P13">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q13">
-        <v>11.65914519945529</v>
+        <v>13.98144348902417</v>
       </c>
       <c r="R13">
-        <v>11.65914519945529</v>
+        <v>83.88866093414499</v>
       </c>
       <c r="S13">
-        <v>0.01728513511860614</v>
+        <v>0.01814899285508011</v>
       </c>
       <c r="T13">
-        <v>0.01728513511860614</v>
+        <v>0.01452097995540984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H14">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I14">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J14">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N14">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O14">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P14">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q14">
-        <v>45.04395993188092</v>
+        <v>46.67071558094734</v>
       </c>
       <c r="R14">
-        <v>45.04395993188092</v>
+        <v>280.024293485684</v>
       </c>
       <c r="S14">
-        <v>0.06677941824894833</v>
+        <v>0.06058219126551772</v>
       </c>
       <c r="T14">
-        <v>0.06677941824894833</v>
+        <v>0.04847171366730391</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H15">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I15">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J15">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N15">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O15">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P15">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q15">
-        <v>62.57593028516499</v>
+        <v>68.80754858235979</v>
       </c>
       <c r="R15">
-        <v>62.57593028516499</v>
+        <v>619.2679372412381</v>
       </c>
       <c r="S15">
-        <v>0.09277124451645809</v>
+        <v>0.0893175092097722</v>
       </c>
       <c r="T15">
-        <v>0.09277124451645809</v>
+        <v>0.1071941929168149</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H16">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I16">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J16">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N16">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O16">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P16">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q16">
-        <v>30.44837567571055</v>
+        <v>32.53748550378545</v>
       </c>
       <c r="R16">
-        <v>30.44837567571055</v>
+        <v>292.837369534069</v>
       </c>
       <c r="S16">
-        <v>0.04514089829855847</v>
+        <v>0.0422361677028593</v>
       </c>
       <c r="T16">
-        <v>0.04514089829855847</v>
+        <v>0.05068963464010143</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H17">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I17">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J17">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N17">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O17">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P17">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q17">
-        <v>23.32673641138695</v>
+        <v>23.94537255577989</v>
       </c>
       <c r="R17">
-        <v>23.32673641138695</v>
+        <v>215.508353002019</v>
       </c>
       <c r="S17">
-        <v>0.03458279177840334</v>
+        <v>0.03108294188423691</v>
       </c>
       <c r="T17">
-        <v>0.03458279177840334</v>
+        <v>0.03730411761635304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H18">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I18">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J18">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N18">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O18">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P18">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q18">
-        <v>23.65795161739109</v>
+        <v>25.22120867865523</v>
       </c>
       <c r="R18">
-        <v>23.65795161739109</v>
+        <v>226.990878107897</v>
       </c>
       <c r="S18">
-        <v>0.03507383117204484</v>
+        <v>0.0327390756515761</v>
       </c>
       <c r="T18">
-        <v>0.03507383117204484</v>
+        <v>0.03929172255655871</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.958443845038945</v>
+        <v>0.9832836666666668</v>
       </c>
       <c r="H19">
-        <v>0.958443845038945</v>
+        <v>2.949851</v>
       </c>
       <c r="I19">
-        <v>0.2900808984961504</v>
+        <v>0.2701569966182878</v>
       </c>
       <c r="J19">
-        <v>0.2900808984961504</v>
+        <v>0.2943120671648075</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.0721234786409</v>
+        <v>11.1245335</v>
       </c>
       <c r="N19">
-        <v>11.0721234786409</v>
+        <v>22.249067</v>
       </c>
       <c r="O19">
-        <v>0.05423561000844764</v>
+        <v>0.05255873837088854</v>
       </c>
       <c r="P19">
-        <v>0.05423561000844764</v>
+        <v>0.03860081537640053</v>
       </c>
       <c r="Q19">
-        <v>10.61200859961456</v>
+        <v>10.93857208983617</v>
       </c>
       <c r="R19">
-        <v>10.61200859961456</v>
+        <v>65.631432539017</v>
       </c>
       <c r="S19">
-        <v>0.01573271448173729</v>
+        <v>0.01419911090432561</v>
       </c>
       <c r="T19">
-        <v>0.01573271448173729</v>
+        <v>0.01136068576767553</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H20">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I20">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J20">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>46.9969734429779</v>
+        <v>47.464142</v>
       </c>
       <c r="N20">
-        <v>46.9969734429779</v>
+        <v>94.928284</v>
       </c>
       <c r="O20">
-        <v>0.230209636674283</v>
+        <v>0.2242480928640021</v>
       </c>
       <c r="P20">
-        <v>0.230209636674283</v>
+        <v>0.1646949584305048</v>
       </c>
       <c r="Q20">
-        <v>40.02487935892358</v>
+        <v>2.364821768246667</v>
       </c>
       <c r="R20">
-        <v>40.02487935892358</v>
+        <v>14.18893060948</v>
       </c>
       <c r="S20">
-        <v>0.05933843656542047</v>
+        <v>0.003069721192174429</v>
       </c>
       <c r="T20">
-        <v>0.05933843656542047</v>
+        <v>0.002456078982244159</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H21">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I21">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J21">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>65.28909399237919</v>
+        <v>69.97731266666666</v>
       </c>
       <c r="N21">
-        <v>65.28909399237919</v>
+        <v>209.931938</v>
       </c>
       <c r="O21">
-        <v>0.3198116284023067</v>
+        <v>0.3306133482671609</v>
       </c>
       <c r="P21">
-        <v>0.3198116284023067</v>
+        <v>0.3642194965005931</v>
       </c>
       <c r="Q21">
-        <v>55.60332759872333</v>
+        <v>3.486502974762222</v>
       </c>
       <c r="R21">
-        <v>55.60332759872333</v>
+        <v>31.37852677286</v>
       </c>
       <c r="S21">
-        <v>0.08243409050544781</v>
+        <v>0.004525749979095436</v>
       </c>
       <c r="T21">
-        <v>0.08243409050544781</v>
+        <v>0.005431567904709874</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,10 +1768,10 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>21</v>
@@ -1780,49 +1780,49 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H22">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I22">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J22">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.768554655879</v>
+        <v>33.09063966666667</v>
       </c>
       <c r="N22">
-        <v>31.768554655879</v>
+        <v>99.271919</v>
       </c>
       <c r="O22">
-        <v>0.1556148596221944</v>
+        <v>0.1563393442759357</v>
       </c>
       <c r="P22">
-        <v>0.1556148596221944</v>
+        <v>0.172230908261456</v>
       </c>
       <c r="Q22">
-        <v>27.05562665756968</v>
+        <v>1.648685970325556</v>
       </c>
       <c r="R22">
-        <v>27.05562665756968</v>
+        <v>14.83817373293</v>
       </c>
       <c r="S22">
-        <v>0.0401110162446989</v>
+        <v>0.002140121649041385</v>
       </c>
       <c r="T22">
-        <v>0.0401110162446989</v>
+        <v>0.002568461827277364</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,10 +1830,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>22</v>
@@ -1842,49 +1842,49 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H23">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I23">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J23">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>24.3381357521672</v>
+        <v>24.35245633333333</v>
       </c>
       <c r="N23">
-        <v>24.3381357521672</v>
+        <v>73.05736899999999</v>
       </c>
       <c r="O23">
-        <v>0.1192177491096067</v>
+        <v>0.1150551060062118</v>
       </c>
       <c r="P23">
-        <v>0.1192177491096067</v>
+        <v>0.126750214409196</v>
       </c>
       <c r="Q23">
-        <v>20.72752511358044</v>
+        <v>1.213320549381111</v>
       </c>
       <c r="R23">
-        <v>20.72752511358044</v>
+        <v>10.91988494443</v>
       </c>
       <c r="S23">
-        <v>0.03072936018322155</v>
+        <v>0.001574983727461791</v>
       </c>
       <c r="T23">
-        <v>0.03072936018322155</v>
+        <v>0.001890212915878222</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.851648019579098</v>
+        <v>0.04982333333333333</v>
       </c>
       <c r="H24">
-        <v>0.851648019579098</v>
+        <v>0.14947</v>
       </c>
       <c r="I24">
-        <v>0.2577582651302158</v>
+        <v>0.01368895116551157</v>
       </c>
       <c r="J24">
-        <v>0.2577582651302158</v>
+        <v>0.01491289718671342</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.6837117686637</v>
+        <v>25.64998233333334</v>
       </c>
       <c r="N24">
-        <v>24.6837117686637</v>
+        <v>76.94994700000001</v>
       </c>
       <c r="O24">
-        <v>0.1209105161831616</v>
+        <v>0.121185370215801</v>
       </c>
       <c r="P24">
-        <v>0.1209105161831616</v>
+        <v>0.1335036070218497</v>
       </c>
       <c r="Q24">
-        <v>21.02183424364371</v>
+        <v>1.277967619787778</v>
       </c>
       <c r="R24">
-        <v>21.02183424364371</v>
+        <v>11.50170857809</v>
       </c>
       <c r="S24">
-        <v>0.0311656848873706</v>
+        <v>0.00165890061485854</v>
       </c>
       <c r="T24">
-        <v>0.0311656848873706</v>
+        <v>0.001990925565572237</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04982333333333333</v>
+      </c>
+      <c r="H25">
+        <v>0.14947</v>
+      </c>
+      <c r="I25">
+        <v>0.01368895116551157</v>
+      </c>
+      <c r="J25">
+        <v>0.01491289718671342</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>11.1245335</v>
+      </c>
+      <c r="N25">
+        <v>22.249067</v>
+      </c>
+      <c r="O25">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P25">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q25">
+        <v>0.5542613407483333</v>
+      </c>
+      <c r="R25">
+        <v>3.32556804449</v>
+      </c>
+      <c r="S25">
+        <v>0.0007194740028799926</v>
+      </c>
+      <c r="T25">
+        <v>0.0005756499910315676</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.896157</v>
+      </c>
+      <c r="H26">
+        <v>1.792314</v>
+      </c>
+      <c r="I26">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J26">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>47.464142</v>
+      </c>
+      <c r="N26">
+        <v>94.928284</v>
+      </c>
+      <c r="O26">
+        <v>0.2242480928640021</v>
+      </c>
+      <c r="P26">
+        <v>0.1646949584305048</v>
+      </c>
+      <c r="Q26">
+        <v>42.535323102294</v>
+      </c>
+      <c r="R26">
+        <v>170.141292409176</v>
+      </c>
+      <c r="S26">
+        <v>0.05521413262357918</v>
+      </c>
+      <c r="T26">
+        <v>0.02945115906189843</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.896157</v>
+      </c>
+      <c r="H27">
+        <v>1.792314</v>
+      </c>
+      <c r="I27">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J27">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>69.97731266666666</v>
+      </c>
+      <c r="N27">
+        <v>209.931938</v>
+      </c>
+      <c r="O27">
+        <v>0.3306133482671609</v>
+      </c>
+      <c r="P27">
+        <v>0.3642194965005931</v>
+      </c>
+      <c r="Q27">
+        <v>62.710658587422</v>
+      </c>
+      <c r="R27">
+        <v>376.263951524532</v>
+      </c>
+      <c r="S27">
+        <v>0.08140327538669087</v>
+      </c>
+      <c r="T27">
+        <v>0.06513062954146098</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.896157</v>
+      </c>
+      <c r="H28">
+        <v>1.792314</v>
+      </c>
+      <c r="I28">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J28">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>33.09063966666667</v>
+      </c>
+      <c r="N28">
+        <v>99.271919</v>
+      </c>
+      <c r="O28">
+        <v>0.1563393442759357</v>
+      </c>
+      <c r="P28">
+        <v>0.172230908261456</v>
+      </c>
+      <c r="Q28">
+        <v>29.654408371761</v>
+      </c>
+      <c r="R28">
+        <v>177.926450230566</v>
+      </c>
+      <c r="S28">
+        <v>0.03849371104515917</v>
+      </c>
+      <c r="T28">
+        <v>0.03079875621525926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.896157</v>
+      </c>
+      <c r="H29">
+        <v>1.792314</v>
+      </c>
+      <c r="I29">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J29">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>24.35245633333333</v>
+      </c>
+      <c r="N29">
+        <v>73.05736899999999</v>
+      </c>
+      <c r="O29">
+        <v>0.1150551060062118</v>
+      </c>
+      <c r="P29">
+        <v>0.126750214409196</v>
+      </c>
+      <c r="Q29">
+        <v>21.823624210311</v>
+      </c>
+      <c r="R29">
+        <v>130.941745261866</v>
+      </c>
+      <c r="S29">
+        <v>0.02832874875729529</v>
+      </c>
+      <c r="T29">
+        <v>0.02266578625884364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.851648019579098</v>
-      </c>
-      <c r="H25">
-        <v>0.851648019579098</v>
-      </c>
-      <c r="I25">
-        <v>0.2577582651302158</v>
-      </c>
-      <c r="J25">
-        <v>0.2577582651302158</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="N25">
-        <v>11.0721234786409</v>
-      </c>
-      <c r="O25">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="P25">
-        <v>0.05423561000844764</v>
-      </c>
-      <c r="Q25">
-        <v>9.429552033119757</v>
-      </c>
-      <c r="R25">
-        <v>9.429552033119757</v>
-      </c>
-      <c r="S25">
-        <v>0.01397967674405643</v>
-      </c>
-      <c r="T25">
-        <v>0.01397967674405643</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.896157</v>
+      </c>
+      <c r="H30">
+        <v>1.792314</v>
+      </c>
+      <c r="I30">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J30">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.64998233333334</v>
+      </c>
+      <c r="N30">
+        <v>76.94994700000001</v>
+      </c>
+      <c r="O30">
+        <v>0.121185370215801</v>
+      </c>
+      <c r="P30">
+        <v>0.1335036070218497</v>
+      </c>
+      <c r="Q30">
+        <v>22.986411217893</v>
+      </c>
+      <c r="R30">
+        <v>137.918467307358</v>
+      </c>
+      <c r="S30">
+        <v>0.02983813604689473</v>
+      </c>
+      <c r="T30">
+        <v>0.02387344459846818</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.896157</v>
+      </c>
+      <c r="H31">
+        <v>1.792314</v>
+      </c>
+      <c r="I31">
+        <v>0.2462189618578582</v>
+      </c>
+      <c r="J31">
+        <v>0.1788224687783976</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>11.1245335</v>
+      </c>
+      <c r="N31">
+        <v>22.249067</v>
+      </c>
+      <c r="O31">
+        <v>0.05255873837088854</v>
+      </c>
+      <c r="P31">
+        <v>0.03860081537640053</v>
+      </c>
+      <c r="Q31">
+        <v>9.969328567759501</v>
+      </c>
+      <c r="R31">
+        <v>39.877314271038</v>
+      </c>
+      <c r="S31">
+        <v>0.01294095799823895</v>
+      </c>
+      <c r="T31">
+        <v>0.006902693102467071</v>
       </c>
     </row>
   </sheetData>
